--- a/biology/Botanique/Adonis_pyrenaica/Adonis_pyrenaica.xlsx
+++ b/biology/Botanique/Adonis_pyrenaica/Adonis_pyrenaica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adonis pyrenaica, l'Adonis des Pyrénées, est une espèce de plante de la famille des Ranunculaceae.
 C'est une espèce très rare qui pousse en rocaille et éboulis dans les Pyrénées et en quelques endroits des Alpes. On la retrouve donc en France et en Espagne.
 Elle est vivace. Les tiges mesurent de 10 à 30 cm. Ses fleurs sont jaunes. Les pétales sont de 1 et 1,5 cm.
-L'espèce a été décrite en 1815 par Augustin Pyrame de Candolle dans La Flore française. Il l'a observée en 1807, en vallée d'Eyne (Pyrénées-Orientales)[1].
+L'espèce a été décrite en 1815 par Augustin Pyrame de Candolle dans La Flore française. Il l'a observée en 1807, en vallée d'Eyne (Pyrénées-Orientales).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est inscrite sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain, en Annexe I.
 </t>
